--- a/Iterativ mjukvaruutveckling/Sprint.xlsx
+++ b/Iterativ mjukvaruutveckling/Sprint.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>HTML</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>Ideal tid</t>
+  </si>
+  <si>
+    <t>Dag 4</t>
+  </si>
+  <si>
+    <t>Dag 5</t>
+  </si>
+  <si>
+    <t>Total Time Worked</t>
+  </si>
+  <si>
+    <t>Hämta data</t>
+  </si>
+  <si>
+    <t>Dag 6</t>
   </si>
 </sst>
 </file>
@@ -72,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -99,37 +114,120 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,6 +235,209 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="sv-SE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Uppskattad tid</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="80402304"/>
+        <c:axId val="80403840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80402304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80403840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80403840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80402304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7551540667243184"/>
+          <c:y val="0.34928918500572043"/>
+          <c:w val="0.23135845736046001"/>
+          <c:h val="0.25013957870650783"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,32 +725,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F9"/>
+  <dimension ref="A2:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="G2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1">
@@ -458,9 +772,16 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2</v>
+      </c>
+      <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
@@ -469,52 +790,172 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6</v>
+      </c>
+      <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="6">
+        <v>4</v>
+      </c>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
         <v>15</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="7">
         <v>4</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>15</v>
+      </c>
+      <c r="K9" s="11"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>20</v>
+      </c>
+      <c r="K10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
